--- a/artfynd/A 57656-2020.xlsx
+++ b/artfynd/A 57656-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3519,6 +3519,131 @@
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111951526</v>
+      </c>
+      <c r="B25" t="n">
+        <v>103249</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>340</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ryl</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Chimaphila umbellata</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) W. P. C. Barton</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Bränsle SO, Öl</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>619465</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6344010</v>
+      </c>
+      <c r="S25" t="n">
+        <v>25</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Borgholm</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Öland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Böda</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Hö-Bor-8992</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Lokalen såg ganska ok ut men nära vägen fanns stora bestånd av örnbräken som konkurrerar.</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 57656-2020.xlsx
+++ b/artfynd/A 57656-2020.xlsx
@@ -932,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82949</v>
+        <v>82950</v>
       </c>
       <c r="B4" t="n">
         <v>97511</v>
@@ -968,7 +968,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Bränsle 500m SO, Öl</t>
+          <t>Bränsle, SO om (4), Öl</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -978,7 +978,7 @@
         <v>6343977.546487568</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1000,6 +1000,11 @@
           <t>Böda</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Hö-Bor-1968</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>2008-06-23</t>
@@ -1020,6 +1025,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>CA 08319</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1032,25 +1042,24 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>Gles tallskog</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>CA 08319</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson</t>
+          <t>Öland- Floraväktarna</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson, Crister Albinsson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Crister Albinsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1293,7 +1302,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>218917</v>
+        <v>218918</v>
       </c>
       <c r="B7" t="n">
         <v>103356</v>
@@ -1327,14 +1336,9 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Bränsle 500m SO, Öl</t>
+          <t>Bränsle, SO om (2), Öl</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1344,7 +1348,7 @@
         <v>6344044.959362451</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1366,6 +1370,11 @@
           <t>Böda</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Hö-Bor-3930</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>2009-06-23</t>
@@ -1397,21 +1406,25 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Vägkant</t>
+          <t>vägkant</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson</t>
+          <t>Öland- Floraväktarna</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson, Crister Albinsson, Stina Eriksson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Crister Albinsson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2284,7 +2297,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>219826</v>
+        <v>67088883</v>
       </c>
       <c r="B15" t="n">
         <v>103357</v>
@@ -2317,19 +2330,13 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bränsle 500m SO, Öl</t>
+          <t>Bränsle 500 m SO, Öl</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2339,7 +2346,7 @@
         <v>6344051.422540787</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2363,7 +2370,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2012-06-10</t>
+          <t>2017-08-09</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2373,7 +2380,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2012-06-10</t>
+          <t>2017-08-09</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2389,21 +2396,16 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Jan-Olof Petersson, Crister Albinsson</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
@@ -2890,14 +2892,14 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>87295372</v>
+        <v>103312351</v>
       </c>
       <c r="B20" t="n">
         <v>103357</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd. Foto (eller ljud) granskat av validerare</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2925,20 +2927,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bränslevägen, Öl</t>
+          <t>Bränsle 500 m SO, Öl</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2948,7 +2954,7 @@
         <v>6344002.122413431</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2972,7 +2978,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2982,17 +2988,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2020-08-04</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>enstaka i blom fortfarande</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3005,20 +3006,15 @@
       <c r="AG20" t="b">
         <v>0</v>
       </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>skogsstig genom blandskog</t>
-        </is>
-      </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson</t>
+          <t>Stefan Kasselstrand</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+          <t>Stefan Kasselstrand, Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3273,14 +3269,14 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>129759</v>
+        <v>95764169</v>
       </c>
       <c r="B23" t="n">
         <v>103226</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3316,14 +3312,12 @@
           <t>plantor/tuvor</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>500 m SO Bränsle, Öl</t>
+          <t>Bränsle SO, Öl</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -3333,7 +3327,7 @@
         <v>6344009.720982418</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3355,6 +3349,11 @@
           <t>Böda</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Hö-Bor-8992</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr">
         <is>
           <t>2006-08-10</t>
@@ -3381,26 +3380,26 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>Stigkant i tall</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
+          <t>Thomas Gunnarsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
           <t>Vera Wendt</t>
         </is>
       </c>
-      <c r="AX23" t="inlineStr">
-        <is>
-          <t>Vera Wendt</t>
-        </is>
-      </c>
-      <c r="AY23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3524,7 +3523,7 @@
         <v>111951526</v>
       </c>
       <c r="B25" t="n">
-        <v>103249</v>
+        <v>103716</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/artfynd/A 57656-2020.xlsx
+++ b/artfynd/A 57656-2020.xlsx
@@ -3523,7 +3523,7 @@
         <v>111951526</v>
       </c>
       <c r="B25" t="n">
-        <v>103716</v>
+        <v>103742</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
